--- a/Integrador1/output/Reporte_2020_MINISTERIO DE HACIENDA Y FINANZAS.xlsx
+++ b/Integrador1/output/Reporte_2020_MINISTERIO DE HACIENDA Y FINANZAS.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arbuefsr04\rpa\Capacitaciones\Talento Digital\Material\Dia 4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819E10B8-94C8-4260-AFD3-D7704F36828B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2DA9467-A94B-4836-ACE5-2CC0F7CE39D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
     <sheet name="Detalle" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Jurisdiccion</t>
   </si>
@@ -82,12 +76,51 @@
   </si>
   <si>
     <t>Importe Total $</t>
+  </si>
+  <si>
+    <t>Valentina Espinoza</t>
+  </si>
+  <si>
+    <t>MINISTERIO DE HACIENDA Y FINANZAS</t>
+  </si>
+  <si>
+    <t>EUQUI S.A.</t>
+  </si>
+  <si>
+    <t>30-60985684-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOALLA DE PAPEL . Modelo: De 18 cm x 24 cm (+/- 1 cm), intercalada, color blanco, para dispensador (dispenser). De buena absorción y resistente a la rotura en húmedo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios para la Higiene S.A </t>
+  </si>
+  <si>
+    <t>30-71158542-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPEL TISSUE    Modelo: De 20 cm de ancho (+/- 1 cm), doble hoja, en rollo Presentacion: En rollo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMPIADOR DESENGRASANTE ANTISEPTICO Demás especificaciones deberán ser indicadas por la repartición solicitante   Modelo: Con odorizante, bactericida no fenólico, tiempo de acción no más de un minuto, no tóxico, biodegradable mínimo 90%, no inflamable, PH no mayor a 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALCOHOL ETILICO EN GEL + ASOCIADOS Demás especificaciones deberán ser indicadas por la repartición solicitante   Modelo: De efecto bactericida </t>
+  </si>
+  <si>
+    <t>JUAN ERNESTO IBARRA</t>
+  </si>
+  <si>
+    <t>20-04424052-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUANTE PARA USO DOMESTICO Fabricados en una sola pieza por proceso de inmersión, serán lisos. Deberán responder anatómicamente al contorno natural de la mano.     La superficie de los guantes estarán libres de materias extrañas, poros, ampollas, nervaduras, grietas, zonas pegajosas o cualquier otro defecto que afecte su eficiencia.    Nota: demás exigencias se ajustaran a la Norma IRAM N° 113.090.    Los talles a solicitar quedarán a cargo de la repartición usuaria.     Se deberán proveer en envase individual, con indicación de talle, cerrado hermético para prevenir humedad y suciedad, con amplia información técnica y recomendaciones generales.   Modelo: De caucho (goma), indicar talles OtrasCaracteristicas: indicar talles Presentacion:  Envase individual, con indicación de talle, cerrado hermético para prevenir humedad y suciedad, con amplia información técnica </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -198,6 +231,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -310,7 +344,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -504,21 +538,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBAB0B3-976C-4A22-80DF-6963064C51BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
@@ -549,31 +583,43 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="7">
+        <v>44620.977199074077</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>2020</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <v>187681.38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -587,14 +633,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0DA34C-081E-49FC-BC42-435812368D1D}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
@@ -627,6 +673,167 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>43965</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>10719.96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>43971</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>140694.12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>43980</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2242.8000000000002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>43965</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>10719.96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>43980</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>21987.42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>43980</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>658.56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>43980</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>658.56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
